--- a/Unit 1 - Excel/Classroom Activities/Class 2/04-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
+++ b/Unit 1 - Excel/Classroom Activities/Class 2/04-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\1\Activities\08-Stu_GradeBook\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BootCamp\PREWORK_JS\Unit 1 - Excel\Classroom Activities\Class 2\04-Stu_GradeBook\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DD97F-757A-44D1-A6A2-74AAFFBF98BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="final">Sheet1!$F:$F</definedName>
+    <definedName name="finalgrade">Sheet1!$F:$F</definedName>
+    <definedName name="finalpaper">Sheet1!$E:$E</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -125,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,13 +185,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -495,21 +513,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="10" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="4" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,14 +549,15 @@
       <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -551,9 +573,32 @@
       <c r="E2" s="2">
         <v>56</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <f>ROUND(AVERAGE(B2:E2),0)</f>
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>IF(F2&gt;60, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IF(F2&gt;=90,"A",IF(AND(F2&gt;=80,F2&lt;90),"B",IF(AND(F2&gt;=70,F2&lt;80),"C",IF(AND(F2&gt;=60,F2&lt;70),"D","F"))))</f>
+        <v>C</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IF(F2&gt;=90, "A", IF(F2&gt;=80, "B", IF(F2&gt;=70, "C", IF(F2&gt;=60, "D", "F"))))</f>
+        <v>C</v>
+      </c>
+      <c r="J2" s="2">
+        <f>INT(AVERAGE(B2:E2))</f>
+        <v>78</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(B2:E2)</f>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -569,9 +614,32 @@
       <c r="E3" s="2">
         <v>95</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F25" si="0">ROUND(AVERAGE(B3:E3),0)</f>
+        <v>74</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G25" si="1">IF(F3&gt;60, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" ref="H3:H25" si="2">IF(F3&gt;=90,"A",IF(AND(F3&gt;=80,F3&lt;90),"B",IF(AND(F3&gt;=70,F3&lt;80),"C",IF(AND(F3&gt;=60,F3&lt;70),"D","F"))))</f>
+        <v>C</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I25" si="3">IF(F3&gt;=90, "A", IF(F3&gt;=80, "B", IF(F3&gt;=70, "C", IF(F3&gt;=60, "D", "F"))))</f>
+        <v>C</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J25" si="4">INT(AVERAGE(B3:E3))</f>
+        <v>74</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K25" si="5">AVERAGE(B3:E3)</f>
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -587,9 +655,32 @@
       <c r="E4" s="2">
         <v>87</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -605,9 +696,32 @@
       <c r="E5" s="2">
         <v>63</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>57.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -623,9 +737,32 @@
       <c r="E6" s="2">
         <v>85</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -641,9 +778,32 @@
       <c r="E7" s="2">
         <v>55</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -659,9 +819,32 @@
       <c r="E8" s="2">
         <v>83</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -677,9 +860,32 @@
       <c r="E9" s="2">
         <v>43</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -695,9 +901,32 @@
       <c r="E10" s="2">
         <v>95</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>94.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -713,9 +942,32 @@
       <c r="E11" s="2">
         <v>47</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -731,9 +983,32 @@
       <c r="E12" s="2">
         <v>55</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -749,9 +1024,32 @@
       <c r="E13" s="2">
         <v>46</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -767,9 +1065,32 @@
       <c r="E14" s="2">
         <v>52</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -785,9 +1106,32 @@
       <c r="E15" s="2">
         <v>57</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -803,9 +1147,32 @@
       <c r="E16" s="2">
         <v>73</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -821,9 +1188,32 @@
       <c r="E17" s="2">
         <v>53</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>71.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -839,9 +1229,32 @@
       <c r="E18" s="2">
         <v>97</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -857,9 +1270,32 @@
       <c r="E19" s="2">
         <v>89</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -875,9 +1311,32 @@
       <c r="E20" s="2">
         <v>82</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>85.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -893,9 +1352,32 @@
       <c r="E21" s="2">
         <v>87</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -911,9 +1393,32 @@
       <c r="E22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -929,9 +1434,32 @@
       <c r="E23" s="2">
         <v>48</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>57.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -947,9 +1475,32 @@
       <c r="E24" s="2">
         <v>55</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -965,7 +1516,30 @@
       <c r="E25" s="2">
         <v>53</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>69.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
